--- a/10b/10_2024_03_07/oraimunka.xlsx
+++ b/10b/10_2024_03_07/oraimunka.xlsx
@@ -5,16 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\bullshitBundle\kossuth\10b\10_2024_03_07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\10b\10_2024_03_07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA0EEC4-7CC9-4795-B21B-C2B5B618A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7235E1F8-C3B9-4EB6-AE40-B85F40703601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06836883-2C91-4DB0-A8E5-D0CBBBBFBD19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{06836883-2C91-4DB0-A8E5-D0CBBBBFBD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Munka1!$A$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Munka1!$A$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Munka1!$A$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Munka1!$A$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Munka1!$B$30:$C$30</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Munka1!$B$31:$C$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Munka1!$B$32:$C$32</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Munka1!$B$33:$C$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -189,6 +199,2238 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bérek és fizetések</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bérleti díjak</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Közművek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Irodaszerek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F18-4DEC-8E85-A95A567C6DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="21"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1818524272"/>
+        <c:axId val="1818525712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1818524272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818525712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1818525712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450000"/>
+          <c:min val="30000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818524272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg2"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$30:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="pyramid"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-480A-472D-BA31-FCC7ABDAF999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hűtőszekrény</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$31:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-480A-472D-BA31-FCC7ABDAF999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mosógép</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$32:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-480A-472D-BA31-FCC7ABDAF999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Mikró</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$33:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-480A-472D-BA31-FCC7ABDAF999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="122194544"/>
+        <c:axId val="122191184"/>
+        <c:axId val="1714886880"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="122194544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122191184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122191184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122194544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1714886880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122191184"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>545305</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F5C836-371A-22EE-5FE8-A1F0A48FE7D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>454818</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB5EEB7-4D73-A7E8-4D98-F83BE0B36E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,18 +2752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B0BCC1-FE48-45E9-890D-6A7ED6219536}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -543,7 +2785,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -554,7 +2796,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -565,7 +2807,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -573,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -581,7 +2823,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -589,7 +2831,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -597,7 +2839,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -605,7 +2847,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -616,7 +2858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -627,7 +2869,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -638,7 +2880,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -649,7 +2891,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -660,7 +2902,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -671,7 +2913,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -682,7 +2924,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -693,7 +2935,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -704,7 +2946,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -715,7 +2957,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -726,7 +2968,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -737,7 +2979,7 @@
         <v>570000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -748,7 +2990,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -759,7 +3001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -770,7 +3012,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -781,7 +3023,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -792,7 +3034,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -805,5 +3047,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>